--- a/src/main/resources/LoginTest.xlsx
+++ b/src/main/resources/LoginTest.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8445"/>
+    <workbookView windowWidth="20490" windowHeight="8445" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>id</t>
   </si>
@@ -31,58 +32,64 @@
     <t>params.password</t>
   </si>
   <si>
+    <t>params.loginType</t>
+  </si>
+  <si>
+    <t>excepted.status</t>
+  </si>
+  <si>
+    <t>密码登录成功</t>
+  </si>
+  <si>
+    <t>http://10.150.20.133/xloan-app-api/common/appLogin</t>
+  </si>
+  <si>
+    <t>15711112223</t>
+  </si>
+  <si>
+    <t>aaa111</t>
+  </si>
+  <si>
+    <t>pwd</t>
+  </si>
+  <si>
+    <t>用户未注册</t>
+  </si>
+  <si>
+    <t>18811112222</t>
+  </si>
+  <si>
+    <t>手机号密码不匹配</t>
+  </si>
+  <si>
+    <t>aaaa1112</t>
+  </si>
+  <si>
+    <t>15711112222</t>
+  </si>
+  <si>
+    <t>超过最大登录失败次数</t>
+  </si>
+  <si>
+    <t>15711112224</t>
+  </si>
+  <si>
+    <t>大额用户做了公积金/信用卡不能登录小额账户</t>
+  </si>
+  <si>
+    <t>18700000000</t>
+  </si>
+  <si>
     <t>params.smsCode</t>
   </si>
   <si>
-    <t>params.loginType</t>
-  </si>
-  <si>
-    <t>excepted.status</t>
-  </si>
-  <si>
-    <t>ignored</t>
-  </si>
-  <si>
-    <t>密码登录成功</t>
-  </si>
-  <si>
-    <t>http://10.150.20.133/xloan-app-api/common/appLogin</t>
-  </si>
-  <si>
-    <t>15711112223</t>
-  </si>
-  <si>
-    <t>aaa111</t>
-  </si>
-  <si>
-    <t>pwd</t>
-  </si>
-  <si>
-    <t>用户未注册</t>
-  </si>
-  <si>
-    <t>18811112222</t>
-  </si>
-  <si>
-    <t>手机号密码不匹配</t>
-  </si>
-  <si>
-    <t>aaaa1112</t>
-  </si>
-  <si>
-    <t>15711112222</t>
-  </si>
-  <si>
-    <t>超过当天最大登录失败次数</t>
-  </si>
-  <si>
-    <t>15711112224</t>
-  </si>
-  <si>
-    <t>大额用户做了公积金/信用卡不能登录小额账户</t>
-  </si>
-  <si>
-    <t>18700000000</t>
+    <t>短信验证码登录成功</t>
+  </si>
+  <si>
+    <t>sms</t>
+  </si>
+  <si>
+    <t>超过最大短信登录失败次数</t>
   </si>
 </sst>
 </file>
@@ -90,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -112,6 +119,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -119,9 +217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,112 +254,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -263,187 +270,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +461,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -468,15 +508,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,35 +542,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,19 +581,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,112 +602,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1042,25 +1049,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="51.375" customWidth="1"/>
+    <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="14.875" customWidth="1"/>
     <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
+    <row r="1" s="1" customFormat="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1082,167 +1088,143 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3">
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3">
         <v>2007</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4">
+      <c r="G4">
         <v>2008</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5">
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5">
         <v>0</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
         <v>2001</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
     </row>
-    <row r="7" ht="16" customHeight="1" spans="1:9">
+    <row r="7" ht="16" customHeight="1" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7">
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7">
         <v>1006</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1257,4 +1239,117 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="2" max="2" width="31.5" customWidth="1"/>
+    <col min="3" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="7" max="7" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4">
+        <v>2003</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/LoginTest.xlsx
+++ b/src/main/resources/LoginTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8445" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t>id</t>
   </si>
@@ -26,24 +26,48 @@
     <t>url</t>
   </si>
   <si>
+    <t>xloanVersion</t>
+  </si>
+  <si>
+    <t>xloanPlatform</t>
+  </si>
+  <si>
+    <t>xloanOsVersion</t>
+  </si>
+  <si>
+    <t>xloanChannel</t>
+  </si>
+  <si>
     <t>params.mobile</t>
   </si>
   <si>
     <t>params.password</t>
   </si>
   <si>
+    <t>params.smsCode</t>
+  </si>
+  <si>
     <t>params.loginType</t>
   </si>
   <si>
     <t>excepted.status</t>
   </si>
   <si>
-    <t>密码登录成功</t>
+    <t>密码登录-成功</t>
   </si>
   <si>
     <t>http://10.150.20.133/xloan-app-api/common/appLogin</t>
   </si>
   <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>WEB</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
     <t>15711112223</t>
   </si>
   <si>
@@ -53,43 +77,139 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>用户未注册</t>
+    <t>密码登录-用户未注册</t>
   </si>
   <si>
     <t>18811112222</t>
   </si>
   <si>
-    <t>手机号密码不匹配</t>
+    <t>密码登录-手机号密码不匹配</t>
   </si>
   <si>
     <t>aaaa1112</t>
   </si>
   <si>
+    <t>密码登录-大额用户做了公积金/信用卡不能登录小额账户</t>
+  </si>
+  <si>
+    <t>DAY7_H5</t>
+  </si>
+  <si>
+    <t>18700000000</t>
+  </si>
+  <si>
+    <t>密码登录-联登渠道下申请单待签约不能登录</t>
+  </si>
+  <si>
     <t>15711112222</t>
   </si>
   <si>
-    <t>超过最大登录失败次数</t>
+    <t>密码登录-联登渠道下申请单签约成功不能登录</t>
   </si>
   <si>
     <t>15711112224</t>
   </si>
   <si>
-    <t>大额用户做了公积金/信用卡不能登录小额账户</t>
-  </si>
-  <si>
-    <t>18700000000</t>
-  </si>
-  <si>
-    <t>params.smsCode</t>
-  </si>
-  <si>
-    <t>短信验证码登录成功</t>
+    <t>密码登录-联登渠道下申请单放款成功不能登录</t>
+  </si>
+  <si>
+    <t>15711112226</t>
+  </si>
+  <si>
+    <t>密码登录-iOS老版单子未做完六步认证不允许登录新版</t>
+  </si>
+  <si>
+    <t>1.3.8</t>
+  </si>
+  <si>
+    <t>iOS</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>15711112225</t>
+  </si>
+  <si>
+    <t>密码登录-Android老版单子未做完六步认证不允许登录新版</t>
+  </si>
+  <si>
+    <t>1.3.9</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>头信息校验-xloanVersion无值</t>
+  </si>
+  <si>
+    <t>头信息校验-xloanVersion小于1.0.2</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>头信息校验-Android6.0以上1.0.7版本不能登录</t>
+  </si>
+  <si>
+    <t>1.0.7</t>
+  </si>
+  <si>
+    <t>ANDROID</t>
+  </si>
+  <si>
+    <t>头信息校验-Android6.0以上1.0.8两个版本不能登录</t>
+  </si>
+  <si>
+    <t>1.0.8</t>
+  </si>
+  <si>
+    <t>短信验证码登录-成功</t>
   </si>
   <si>
     <t>sms</t>
   </si>
   <si>
-    <t>超过最大短信登录失败次数</t>
+    <t>短信验证码登录-用户未注册</t>
+  </si>
+  <si>
+    <t>短信验证码登录-验证码错误</t>
+  </si>
+  <si>
+    <t>短信验证码登录-大额用户做了公积金/信用卡不能登录小额账户</t>
+  </si>
+  <si>
+    <t>短信验证码登录-联登渠道下申请单待签约不能登录</t>
+  </si>
+  <si>
+    <t>短信验证码登录-联登渠道下申请单放款成功不能登录</t>
+  </si>
+  <si>
+    <t>短信验证码登录-iOS老版单子未做完六步认证不允许登录新版</t>
+  </si>
+  <si>
+    <t>短信验证码登录-Android老版单子未做完六步认证不允许登录新版</t>
+  </si>
+  <si>
+    <t>密码登录-超过最大登录失败次数</t>
+  </si>
+  <si>
+    <t>验证码登录-超过最大登录失败次数</t>
+  </si>
+  <si>
+    <t>验证码登录-10分钟内发送短信次数过多</t>
+  </si>
+  <si>
+    <t>验证码登录-一天内发送短信次数过多</t>
+  </si>
+  <si>
+    <t>验证码登录-短信登录失败次数过多</t>
   </si>
 </sst>
 </file>
@@ -102,7 +222,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,9 +239,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -129,22 +247,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,47 +261,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -217,22 +282,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -254,6 +325,68 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -270,13 +403,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,7 +439,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,157 +571,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,11 +597,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,25 +636,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -527,17 +666,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,7 +679,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +702,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,19 +714,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,133 +735,157 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1049,24 +1206,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.125" customWidth="1"/>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="20.375" customWidth="1"/>
-    <col min="4" max="4" width="14.875" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="2" max="2" width="32.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="9.25" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="10.125" customWidth="1"/>
+    <col min="11" max="11" width="7.625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1088,143 +1250,702 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3">
         <v>2007</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="4"/>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4">
         <v>2008</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" ht="30" customHeight="1" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="29" customHeight="1" spans="1:12">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" ht="27" spans="1:12">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="8" s="5" customFormat="1" ht="34" customHeight="1" spans="1:12">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="9" ht="29" customHeight="1" spans="1:12">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="10" ht="27" spans="1:12">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="H11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="G5">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" ht="33" customHeight="1" spans="1:12">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>19</v>
+      </c>
+      <c r="L13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:12">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" s="5" customFormat="1" spans="1:12">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L15" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="16" s="5" customFormat="1" spans="1:12">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="1" spans="1:12">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="J17" s="5">
+        <v>123456</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="1" ht="27" spans="1:12">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="19" s="5" customFormat="1" ht="27" spans="1:12">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="7" ht="16" customHeight="1" spans="1:7">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="1" ht="27" spans="1:12">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="5">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="1" ht="27" spans="1:12">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7">
-        <v>1006</v>
+      <c r="B21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="1" ht="27" spans="1:12">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L22" s="5">
+        <v>2011</v>
       </c>
     </row>
   </sheetData>
@@ -1233,8 +1954,23 @@
     <hyperlink ref="C3" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
     <hyperlink ref="C4" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
     <hyperlink ref="C5" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C11" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C12" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
     <hyperlink ref="C6" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
-    <hyperlink ref="C7" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C13" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C14" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C15" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C18" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C20" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C21" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C22" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C19" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C16" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C17" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1244,23 +1980,26 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="2" max="2" width="31.5" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="4" max="4" width="15.25" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="30.125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="8.375" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="9" max="11" width="12.625"/>
+    <col min="12" max="12" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +2013,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -1282,72 +2021,178 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="30" customHeight="1" spans="1:12">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4"/>
+      <c r="K4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:12">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L6">
         <v>2003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
     <hyperlink ref="C2" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
     <hyperlink ref="C3" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
-    <hyperlink ref="C4" r:id="rId1" display="http://10.150.20.133/xloan-app-api/common/appLogin" tooltip="http://10.150.20.133/xloan-app-api/common/appLogin"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
